--- a/code/data/Classificazione Ecoicop (4 cifre) (IT1,168_6_DF_DCSP_IPCA3_1,1.0).xlsx
+++ b/code/data/Classificazione Ecoicop (4 cifre) (IT1,168_6_DF_DCSP_IPCA3_1,1.0).xlsx
@@ -145,7 +145,7 @@
     <t xml:space="preserve">[0322] Riparazione e noleggio calzature  </t>
   </si>
   <si>
-    <t xml:space="preserve">[04] -- abitazione, acqua, elettricità e combustibili  </t>
+    <t xml:space="preserve">[04] -- abitazione, acqua, elettricità, gas e altri combustibili  </t>
   </si>
   <si>
     <t xml:space="preserve">[041] Affitti reali per abitazione  </t>
